--- a/1-Data/Physical/WG2_24-25_Light_Data.xlsx
+++ b/1-Data/Physical/WG2_24-25_Light_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\1-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/1-Data/Physical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAF254C-0139-41B7-B917-70DB8148D7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{3DAF254C-0139-41B7-B917-70DB8148D7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F46A2A1-BA47-4F3A-804F-8037E1B8AF3E}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{33E9B35D-F66D-4077-A58B-DA086FD140C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33E9B35D-F66D-4077-A58B-DA086FD140C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="79">
   <si>
     <t>pi_name</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Air</t>
+  </si>
+  <si>
+    <t>instrument</t>
   </si>
 </sst>
 </file>
@@ -347,6 +350,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -666,19 +673,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1D3BD1-F188-42C7-81BF-36711A57E2C4}">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,22 +700,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -720,20 +731,20 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>495.7</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -746,20 +757,20 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>406.1</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -772,20 +783,20 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>12.96</v>
       </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -798,20 +809,20 @@
       <c r="D5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>65</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>55.16</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -824,20 +835,20 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>609.5</v>
       </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -850,20 +861,20 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>365.6</v>
       </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -876,20 +887,20 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>251.5</v>
       </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -902,20 +913,20 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>26</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>212.3</v>
       </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -928,20 +939,20 @@
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>28</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>193.89</v>
       </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -954,20 +965,20 @@
       <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>167.06</v>
       </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -980,20 +991,20 @@
       <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>135.47999999999999</v>
       </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1006,20 +1017,20 @@
       <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
       <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>35</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>609.5</v>
       </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1032,20 +1043,20 @@
       <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
       <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>37</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>365.6</v>
       </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1058,20 +1069,20 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
       <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>47</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>653</v>
       </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1084,20 +1095,20 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
       <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>48</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>315</v>
       </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1110,20 +1121,20 @@
       <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
       <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
         <v>49</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>84.7</v>
       </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1136,20 +1147,20 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
       <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>50</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>56.3</v>
       </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1162,20 +1173,20 @@
       <c r="D19" t="s">
         <v>30</v>
       </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
       <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
         <v>51</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1188,20 +1199,20 @@
       <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
       <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>52</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>51.4</v>
       </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1214,20 +1225,20 @@
       <c r="D21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
       <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
         <v>53</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>39</v>
       </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1240,20 +1251,20 @@
       <c r="D22" t="s">
         <v>41</v>
       </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
       <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
         <v>54</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>21.25</v>
       </c>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1266,20 +1277,20 @@
       <c r="D23" t="s">
         <v>42</v>
       </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
       <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
         <v>55</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>10.5</v>
       </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1292,20 +1303,20 @@
       <c r="D24" t="s">
         <v>43</v>
       </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
       <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
         <v>56</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>6.11</v>
       </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1318,20 +1329,20 @@
       <c r="D25" t="s">
         <v>44</v>
       </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
       <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
         <v>57</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3.99</v>
       </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1344,20 +1355,20 @@
       <c r="D26" t="s">
         <v>45</v>
       </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
       <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
         <v>58</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3.8</v>
       </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1370,20 +1381,20 @@
       <c r="D27" t="s">
         <v>45</v>
       </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
       <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
         <v>59</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.9</v>
       </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1396,20 +1407,20 @@
       <c r="D28" t="s">
         <v>46</v>
       </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
       <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
         <v>60</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.2</v>
       </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1422,21 +1433,21 @@
       <c r="D29" t="s">
         <v>67</v>
       </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
       <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
         <v>68</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>114</v>
       </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1449,20 +1460,20 @@
       <c r="D30" t="s">
         <v>69</v>
       </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
       <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
         <v>70</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>105</v>
       </c>
-      <c r="H30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1475,20 +1486,20 @@
       <c r="D31" t="s">
         <v>71</v>
       </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
       <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
         <v>72</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>96</v>
       </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1501,20 +1512,20 @@
       <c r="D32" t="s">
         <v>73</v>
       </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
       <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
         <v>74</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>86</v>
       </c>
-      <c r="H32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1527,20 +1538,20 @@
       <c r="D33" t="s">
         <v>20</v>
       </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
       <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
         <v>62</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>77</v>
       </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1553,20 +1564,20 @@
       <c r="D34" t="s">
         <v>75</v>
       </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
       <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
         <v>76</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>65</v>
       </c>
-      <c r="H34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1579,20 +1590,20 @@
       <c r="D35" t="s">
         <v>25</v>
       </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
       <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
         <v>63</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>58</v>
       </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1605,20 +1616,20 @@
       <c r="D36" t="s">
         <v>27</v>
       </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
       <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
         <v>64</v>
       </c>
-      <c r="G36">
-        <v>38</v>
-      </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>38</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1632,462 +1643,462 @@
         <f>CONCATENATE("LiCor","_", "snow","_",C37)</f>
         <v>LiCor_snow_Air</v>
       </c>
-      <c r="H37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H68" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H78" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H79" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H80" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H81" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H82" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H83" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H84" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H85" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H86" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H87" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H89" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H90" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H91" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H94" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H95" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H96" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H97" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H100" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H101" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H102" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H103" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H104" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H105" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H106" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H107" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H108" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H109" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H110" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H111" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H112" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H113" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H114" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H115" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H116" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H117" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H118" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H119" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H120" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H121" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H122" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H123" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H124" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H125" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H126" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="127" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H127" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="128" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H128" t="s">
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I128" t="s">
         <v>17</v>
       </c>
     </row>
